--- a/ejercicio1_normalizacion.xlsx
+++ b/ejercicio1_normalizacion.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo.morenoventas\Desktop\SQL\SQL_04052023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEED994-136F-462D-A814-3715051DB407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7619515E-211D-4A7A-8049-86F24FC70F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D4117808-9609-4FD3-85F8-78AE55419027}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{D4117808-9609-4FD3-85F8-78AE55419027}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="2FN" sheetId="2" r:id="rId2"/>
-    <sheet name="3FN" sheetId="3" r:id="rId3"/>
+    <sheet name="1FN" sheetId="4" r:id="rId2"/>
+    <sheet name="2FN" sheetId="2" r:id="rId3"/>
+    <sheet name="3FN" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
   <si>
     <t>Nº Alumno</t>
   </si>
@@ -88,7 +89,10 @@
     <t>An.Matemático</t>
   </si>
   <si>
-    <t>Ya se encuentra en 1FN</t>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>(Ya está en 2FN)</t>
   </si>
 </sst>
 </file>
@@ -118,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,14 +145,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21F19CA-0FF3-4D98-B09C-2CFC76B0CDA6}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F3"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,11 +573,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -543,11 +580,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7230BC7F-53D5-4FC8-A762-238085EC74CF}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C28CF5-4BCB-43DD-A177-8C40DE816E95}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="C11" sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7230BC7F-53D5-4FC8-A762-238085EC74CF}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,60 +727,70 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1022</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4123</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -618,13 +799,67 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>4123</v>
+        <v>1022</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -632,105 +867,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54077964-0966-46AB-9160-425A60FA6969}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1022</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4123</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>4123</v>
+        <v>1022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>4123</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
